--- a/Datos/Database by set/Set with text box/Xlsx sets/World Championship Promos (PWOR).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/World Championship Promos (PWOR).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,63 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Balduvian Horde</t>
+          <t>('Balduvian Horde', ['{2}{R}{R}', 'Creature — Human Barbarian', 'When Balduvian Horde enters the battlefield, sacrifice it unless you discard a card at random.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Human Barbarian</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>When Balduvian Horde enters the battlefield, sacrifice it unless you discard a card at random.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Crucible of Worlds</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{3}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>You may play lands from your graveyard.</t>
+          <t>('Crucible of Worlds', ['{3}', 'Artifact', 'You may play lands from your graveyard.'])</t>
         </is>
       </c>
     </row>
